--- a/uploads/exports/export_data_status_apprve.xlsx
+++ b/uploads/exports/export_data_status_apprve.xlsx
@@ -15,36 +15,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>เลขที่ใบสั่งขาย</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>วันที่ใบสั่ง</t>
   </si>
   <si>
+    <t>วันที่ส่งมอบ</t>
+  </si>
+  <si>
     <t>ผู้ซื้อ</t>
   </si>
   <si>
+    <t>customer email</t>
+  </si>
+  <si>
     <t>รายการสินค้า</t>
   </si>
   <si>
     <t>จำนวน</t>
   </si>
   <si>
-    <t>หน่วยงาน</t>
+    <t>หน่วย</t>
+  </si>
+  <si>
+    <t>ราคา/หน่วย</t>
   </si>
   <si>
     <t>จำนวนเงิน</t>
   </si>
   <si>
+    <t>vat 7%</t>
+  </si>
+  <si>
+    <t>จำนวนเงินสุทธิ</t>
+  </si>
+  <si>
     <t>หน่วย(บาท)</t>
   </si>
   <si>
     <t>ผู้ขาย</t>
   </si>
   <si>
-    <t>สถานะ</t>
+    <t>สถานะอนุมัติ</t>
   </si>
   <si>
     <t>เหตุผล/หมายเหตุ</t>
@@ -53,13 +71,22 @@
     <t>วันที่อนุมัติ</t>
   </si>
   <si>
-    <t>04/10/2567</t>
+    <t>001</t>
+  </si>
+  <si>
+    <t>10/04/2567</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
   </si>
   <si>
     <t>นายรักชาติ ยิ่งชีพ</t>
   </si>
   <si>
-    <t>ยางแท่ง</t>
+    <t>ntt_123@gmail.com</t>
+  </si>
+  <si>
+    <t>ยางรมควัน</t>
   </si>
   <si>
     <t>กิโลกรัม</t>
@@ -71,16 +98,10 @@
     <t>รตี หาญยิ่ง</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>เทสไม่อนุมัติ</t>
-  </si>
-  <si>
-    <t>14/05/2567</t>
-  </si>
-  <si>
-    <t>ยางรมควัน</t>
+    <t>01</t>
+  </si>
+  <si>
+    <t>2024-07-25 15:00:45.852129</t>
   </si>
 </sst>
 </file>
@@ -420,7 +441,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +449,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,119 +486,76 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:18">
       <c r="A2">
-        <v>2100000058</v>
+        <v>2100000081</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>1500</v>
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>35000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>2100000058</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>1500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>35000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>2100000058</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1500</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>35000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="K2">
+        <v>400</v>
+      </c>
+      <c r="L2">
+        <v>28</v>
+      </c>
+      <c r="M2">
+        <v>428</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
